--- a/REGULAR/OJT/ERIDAO ROSALINDA.xlsx
+++ b/REGULAR/OJT/ERIDAO ROSALINDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E262B54B-7405-49D7-86D3-A79A2ED90AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB90B81-3E01-48F5-BF77-1DF7D85F8D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="517">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1583,6 +1583,9 @@
   </si>
   <si>
     <t>CSWDO</t>
+  </si>
+  <si>
+    <t>DAYCARE WORKER I</t>
   </si>
 </sst>
 </file>
@@ -5481,9 +5484,9 @@
   <dimension ref="A2:K767"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A643" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="I652" sqref="I652"/>
+      <pane ySplit="3576" topLeftCell="A651" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B660" sqref="B660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5526,7 +5529,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="55" t="s">
+        <v>516</v>
+      </c>
       <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -5644,7 +5649,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.9370000000000687</v>
+        <v>11.187000000000069</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5654,7 +5659,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>76.004000000000019</v>
+        <v>76.254000000000019</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -20205,13 +20210,15 @@
         <v>44986</v>
       </c>
       <c r="B659" s="20"/>
-      <c r="C659" s="13"/>
+      <c r="C659" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D659" s="39"/>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G659" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
@@ -20222,7 +20229,9 @@
       <c r="A660" s="40">
         <v>45017</v>
       </c>
-      <c r="B660" s="20"/>
+      <c r="B660" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C660" s="13"/>
       <c r="D660" s="39"/>
       <c r="E660" s="9"/>
@@ -20231,10 +20240,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H660" s="39"/>
+      <c r="H660" s="39">
+        <v>1</v>
+      </c>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
-      <c r="K660" s="20"/>
+      <c r="K660" s="50">
+        <v>45029</v>
+      </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
